--- a/IntegrationTest/EA06_ContentManagement_結合試験項目書.xlsx
+++ b/IntegrationTest/EA06_ContentManagement_結合試験項目書.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpei_konishi\Desktop\3系IISチェック環境\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -800,33 +805,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ページレイアウト編集フォームを入力、"プレビュー登録"ボタンを押下する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページ管理（レイアウトプレビュー登録）</t>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録したURLの末尾に"?preview=1"を追加してアクセスするとプレビュー編集した内容のページが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>EA0603-UC01-T04</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1269,13 +1247,79 @@
   </si>
   <si>
     <t>ファイルがダウンロードされる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字化けしているがいいのか</t>
+    <rPh sb="0" eb="3">
+      <t>モジバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認アラートが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページレイアウト編集フォームを入力、"プレビュー"ボタンを押下する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ管理（レイアウトプレビュー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウト編集で編集中の内容のページが表示される（URLの末尾には?preview=1が付加される）</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"?preview=1"除いたURLにアクセスし、実際のページには反映されていないことを確認する</t>
+    <rPh sb="12" eb="13">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>カク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
@@ -1373,7 +1417,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,8 +1442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1525,19 +1575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1656,7 +1693,7 @@
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,22 +1749,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="98" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="98" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="12" xfId="98" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="98" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="98" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="98" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="98" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="98" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="98" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="98" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="98" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="98" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="98" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="98" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1782,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="98" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="98" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="98" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="98" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,12 +1825,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,6 +1947,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
@@ -2025,6 +2065,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2754,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H9:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
@@ -3331,28 +3374,28 @@
     </row>
     <row r="26" spans="8:42" ht="17.100000000000001" customHeight="1">
       <c r="W26" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AC26" s="25"/>
       <c r="AD26" s="25"/>
       <c r="AE26" s="25"/>
       <c r="AF26" s="26"/>
       <c r="AG26" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
       <c r="AJ26" s="25"/>
       <c r="AK26" s="26"/>
       <c r="AL26" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AM26" s="25"/>
       <c r="AN26" s="25"/>
@@ -3759,11 +3802,11 @@
   <sheetData>
     <row r="1" spans="1:43" ht="16.5" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -3777,7 +3820,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
       <c r="O1" s="39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P1" s="39"/>
       <c r="Q1" s="39"/>
@@ -3793,21 +3836,21 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="40"/>
       <c r="AC1" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AD1" s="39"/>
       <c r="AE1" s="39"/>
       <c r="AF1" s="39"/>
       <c r="AG1" s="40"/>
       <c r="AH1" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="39"/>
       <c r="AK1" s="39"/>
       <c r="AL1" s="40"/>
       <c r="AM1" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AN1" s="39"/>
       <c r="AO1" s="39"/>
@@ -3816,11 +3859,11 @@
     </row>
     <row r="2" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -3834,7 +3877,7 @@
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
@@ -3850,7 +3893,7 @@
       <c r="AA2" s="33"/>
       <c r="AB2" s="34"/>
       <c r="AC2" s="35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AD2" s="36"/>
       <c r="AE2" s="36"/>
@@ -3917,18 +3960,18 @@
     <row r="4" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -3936,7 +3979,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -3957,7 +4000,7 @@
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AI4" s="31"/>
       <c r="AJ4" s="31"/>
@@ -3978,12 +4021,12 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
@@ -3991,7 +4034,7 @@
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
@@ -5357,7 +5400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
@@ -5369,261 +5412,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="65" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="59" t="s">
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="61"/>
+      <c r="AJ2" s="59"/>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="68" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="86" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="86" t="s">
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="88"/>
+      <c r="AJ3" s="86"/>
     </row>
     <row r="4" spans="1:36">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="91"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="89"/>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="94"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="92"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="55" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="55" t="s">
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="57"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6194,13 +6237,13 @@
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
       <c r="E21" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
@@ -6249,7 +6292,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
       <c r="L22" s="48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
@@ -6289,7 +6332,7 @@
       <c r="J23" s="46"/>
       <c r="K23" s="47"/>
       <c r="L23" s="48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
@@ -6491,7 +6534,7 @@
       <c r="J28" s="46"/>
       <c r="K28" s="47"/>
       <c r="L28" s="48" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
@@ -6935,7 +6978,7 @@
       <c r="J39" s="46"/>
       <c r="K39" s="47"/>
       <c r="L39" s="48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M39" s="49"/>
       <c r="N39" s="49"/>
@@ -6975,7 +7018,7 @@
       <c r="J40" s="46"/>
       <c r="K40" s="47"/>
       <c r="L40" s="48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M40" s="49"/>
       <c r="N40" s="49"/>
@@ -7129,13 +7172,15 @@
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="47"/>
+      <c r="E44" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="95"/>
       <c r="L44" s="48" t="s">
         <v>44</v>
       </c>
@@ -7299,7 +7344,7 @@
       <c r="J48" s="46"/>
       <c r="K48" s="47"/>
       <c r="L48" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M48" s="49"/>
       <c r="N48" s="49"/>
@@ -7339,7 +7384,7 @@
       <c r="J49" s="46"/>
       <c r="K49" s="47"/>
       <c r="L49" s="48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M49" s="49"/>
       <c r="N49" s="49"/>
@@ -8147,7 +8192,7 @@
       <c r="J69" s="46"/>
       <c r="K69" s="47"/>
       <c r="L69" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M69" s="49"/>
       <c r="N69" s="49"/>
@@ -8292,9 +8337,9 @@
       <c r="AE72" s="49"/>
       <c r="AF72" s="49"/>
       <c r="AG72" s="50"/>
-      <c r="AH72" s="53"/>
-      <c r="AI72" s="54"/>
-      <c r="AJ72" s="3"/>
+      <c r="AH72" s="51"/>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="2"/>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="42"/>
@@ -8332,9 +8377,9 @@
       <c r="AE73" s="49"/>
       <c r="AF73" s="49"/>
       <c r="AG73" s="50"/>
-      <c r="AH73" s="53"/>
-      <c r="AI73" s="54"/>
-      <c r="AJ73" s="3"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="2"/>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="42"/>
@@ -8372,9 +8417,9 @@
       <c r="AE74" s="49"/>
       <c r="AF74" s="49"/>
       <c r="AG74" s="50"/>
-      <c r="AH74" s="53"/>
-      <c r="AI74" s="54"/>
-      <c r="AJ74" s="3"/>
+      <c r="AH74" s="51"/>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="2"/>
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="42"/>
@@ -8412,9 +8457,9 @@
       <c r="AE75" s="49"/>
       <c r="AF75" s="49"/>
       <c r="AG75" s="50"/>
-      <c r="AH75" s="53"/>
-      <c r="AI75" s="54"/>
-      <c r="AJ75" s="3"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="2"/>
     </row>
     <row r="76" spans="1:36" ht="38.1" customHeight="1">
       <c r="A76" s="42"/>
@@ -8452,9 +8497,9 @@
       <c r="AE76" s="49"/>
       <c r="AF76" s="49"/>
       <c r="AG76" s="50"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="54"/>
-      <c r="AJ76" s="3"/>
+      <c r="AH76" s="51"/>
+      <c r="AI76" s="52"/>
+      <c r="AJ76" s="2"/>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="42"/>
@@ -8574,8 +8619,8 @@
       <c r="AE79" s="49"/>
       <c r="AF79" s="49"/>
       <c r="AG79" s="50"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="54"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="52"/>
       <c r="AJ79" s="3"/>
     </row>
     <row r="80" spans="1:36">
@@ -8614,8 +8659,8 @@
       <c r="AE80" s="49"/>
       <c r="AF80" s="49"/>
       <c r="AG80" s="50"/>
-      <c r="AH80" s="53"/>
-      <c r="AI80" s="54"/>
+      <c r="AH80" s="51"/>
+      <c r="AI80" s="52"/>
       <c r="AJ80" s="3"/>
     </row>
     <row r="81" spans="1:36">
@@ -8654,8 +8699,8 @@
       <c r="AE81" s="49"/>
       <c r="AF81" s="49"/>
       <c r="AG81" s="50"/>
-      <c r="AH81" s="53"/>
-      <c r="AI81" s="54"/>
+      <c r="AH81" s="51"/>
+      <c r="AI81" s="52"/>
       <c r="AJ81" s="3"/>
     </row>
     <row r="82" spans="1:36">
@@ -8694,8 +8739,8 @@
       <c r="AE82" s="49"/>
       <c r="AF82" s="49"/>
       <c r="AG82" s="50"/>
-      <c r="AH82" s="53"/>
-      <c r="AI82" s="54"/>
+      <c r="AH82" s="51"/>
+      <c r="AI82" s="52"/>
       <c r="AJ82" s="3"/>
     </row>
     <row r="83" spans="1:36">
@@ -8734,8 +8779,8 @@
       <c r="AE83" s="49"/>
       <c r="AF83" s="49"/>
       <c r="AG83" s="50"/>
-      <c r="AH83" s="53"/>
-      <c r="AI83" s="54"/>
+      <c r="AH83" s="51"/>
+      <c r="AI83" s="52"/>
       <c r="AJ83" s="3"/>
     </row>
     <row r="84" spans="1:36">
@@ -8778,7 +8823,7 @@
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -8856,9 +8901,9 @@
       <c r="AE86" s="49"/>
       <c r="AF86" s="49"/>
       <c r="AG86" s="50"/>
-      <c r="AH86" s="53"/>
-      <c r="AI86" s="54"/>
-      <c r="AJ86" s="3"/>
+      <c r="AH86" s="51"/>
+      <c r="AI86" s="52"/>
+      <c r="AJ86" s="2"/>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="42"/>
@@ -8896,9 +8941,9 @@
       <c r="AE87" s="49"/>
       <c r="AF87" s="49"/>
       <c r="AG87" s="50"/>
-      <c r="AH87" s="53"/>
-      <c r="AI87" s="54"/>
-      <c r="AJ87" s="3"/>
+      <c r="AH87" s="51"/>
+      <c r="AI87" s="52"/>
+      <c r="AJ87" s="2"/>
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="42"/>
@@ -8936,9 +8981,9 @@
       <c r="AE88" s="49"/>
       <c r="AF88" s="49"/>
       <c r="AG88" s="50"/>
-      <c r="AH88" s="53"/>
-      <c r="AI88" s="54"/>
-      <c r="AJ88" s="3"/>
+      <c r="AH88" s="51"/>
+      <c r="AI88" s="52"/>
+      <c r="AJ88" s="2"/>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="42"/>
@@ -8976,9 +9021,9 @@
       <c r="AE89" s="49"/>
       <c r="AF89" s="49"/>
       <c r="AG89" s="50"/>
-      <c r="AH89" s="53"/>
-      <c r="AI89" s="54"/>
-      <c r="AJ89" s="3"/>
+      <c r="AH89" s="51"/>
+      <c r="AI89" s="52"/>
+      <c r="AJ89" s="2"/>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="42"/>
@@ -9016,9 +9061,9 @@
       <c r="AE90" s="49"/>
       <c r="AF90" s="49"/>
       <c r="AG90" s="50"/>
-      <c r="AH90" s="53"/>
-      <c r="AI90" s="54"/>
-      <c r="AJ90" s="3"/>
+      <c r="AH90" s="51"/>
+      <c r="AI90" s="52"/>
+      <c r="AJ90" s="2"/>
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="42"/>
@@ -9058,15 +9103,15 @@
       <c r="AI91" s="52"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" ht="26.25" customHeight="1">
       <c r="A92" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="44"/>
       <c r="E92" s="45" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="F92" s="46"/>
       <c r="G92" s="46"/>
@@ -9098,8 +9143,8 @@
       <c r="AE92" s="49"/>
       <c r="AF92" s="49"/>
       <c r="AG92" s="50"/>
-      <c r="AH92" s="53"/>
-      <c r="AI92" s="54"/>
+      <c r="AH92" s="51"/>
+      <c r="AI92" s="52"/>
       <c r="AJ92" s="3"/>
     </row>
     <row r="93" spans="1:36">
@@ -9138,8 +9183,8 @@
       <c r="AE93" s="49"/>
       <c r="AF93" s="49"/>
       <c r="AG93" s="50"/>
-      <c r="AH93" s="53"/>
-      <c r="AI93" s="54"/>
+      <c r="AH93" s="51"/>
+      <c r="AI93" s="52"/>
       <c r="AJ93" s="3"/>
     </row>
     <row r="94" spans="1:36">
@@ -9178,8 +9223,8 @@
       <c r="AE94" s="49"/>
       <c r="AF94" s="49"/>
       <c r="AG94" s="50"/>
-      <c r="AH94" s="53"/>
-      <c r="AI94" s="54"/>
+      <c r="AH94" s="51"/>
+      <c r="AI94" s="52"/>
       <c r="AJ94" s="3"/>
     </row>
     <row r="95" spans="1:36">
@@ -9195,7 +9240,7 @@
       <c r="J95" s="46"/>
       <c r="K95" s="47"/>
       <c r="L95" s="48" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="M95" s="49"/>
       <c r="N95" s="49"/>
@@ -9218,11 +9263,11 @@
       <c r="AE95" s="49"/>
       <c r="AF95" s="49"/>
       <c r="AG95" s="50"/>
-      <c r="AH95" s="53"/>
-      <c r="AI95" s="54"/>
+      <c r="AH95" s="51"/>
+      <c r="AI95" s="52"/>
       <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" ht="14.25" customHeight="1">
       <c r="A96" s="42"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -9235,7 +9280,7 @@
       <c r="J96" s="46"/>
       <c r="K96" s="47"/>
       <c r="L96" s="48" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="M96" s="49"/>
       <c r="N96" s="49"/>
@@ -9258,11 +9303,11 @@
       <c r="AE96" s="49"/>
       <c r="AF96" s="49"/>
       <c r="AG96" s="50"/>
-      <c r="AH96" s="53"/>
-      <c r="AI96" s="54"/>
+      <c r="AH96" s="51"/>
+      <c r="AI96" s="52"/>
       <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" ht="23.25" customHeight="1">
       <c r="A97" s="42"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -9275,7 +9320,7 @@
       <c r="J97" s="46"/>
       <c r="K97" s="47"/>
       <c r="L97" s="48" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="M97" s="49"/>
       <c r="N97" s="49"/>
@@ -9298,8 +9343,8 @@
       <c r="AE97" s="49"/>
       <c r="AF97" s="49"/>
       <c r="AG97" s="50"/>
-      <c r="AH97" s="53"/>
-      <c r="AI97" s="54"/>
+      <c r="AH97" s="51"/>
+      <c r="AI97" s="52"/>
       <c r="AJ97" s="3"/>
     </row>
     <row r="98" spans="1:36">
@@ -9342,13 +9387,13 @@
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="44"/>
       <c r="E99" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F99" s="46"/>
       <c r="G99" s="46"/>
@@ -9357,7 +9402,7 @@
       <c r="J99" s="46"/>
       <c r="K99" s="47"/>
       <c r="L99" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M99" s="49"/>
       <c r="N99" s="49"/>
@@ -9397,7 +9442,7 @@
       <c r="J100" s="46"/>
       <c r="K100" s="47"/>
       <c r="L100" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M100" s="49"/>
       <c r="N100" s="49"/>
@@ -9420,9 +9465,9 @@
       <c r="AE100" s="49"/>
       <c r="AF100" s="49"/>
       <c r="AG100" s="50"/>
-      <c r="AH100" s="53"/>
-      <c r="AI100" s="54"/>
-      <c r="AJ100" s="3"/>
+      <c r="AH100" s="51"/>
+      <c r="AI100" s="52"/>
+      <c r="AJ100" s="2"/>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="42"/>
@@ -9437,7 +9482,7 @@
       <c r="J101" s="46"/>
       <c r="K101" s="47"/>
       <c r="L101" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M101" s="49"/>
       <c r="N101" s="49"/>
@@ -9460,9 +9505,9 @@
       <c r="AE101" s="49"/>
       <c r="AF101" s="49"/>
       <c r="AG101" s="50"/>
-      <c r="AH101" s="53"/>
-      <c r="AI101" s="54"/>
-      <c r="AJ101" s="3"/>
+      <c r="AH101" s="51"/>
+      <c r="AI101" s="52"/>
+      <c r="AJ101" s="2"/>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="42"/>
@@ -9500,9 +9545,9 @@
       <c r="AE102" s="49"/>
       <c r="AF102" s="49"/>
       <c r="AG102" s="50"/>
-      <c r="AH102" s="53"/>
-      <c r="AI102" s="54"/>
-      <c r="AJ102" s="3"/>
+      <c r="AH102" s="51"/>
+      <c r="AI102" s="52"/>
+      <c r="AJ102" s="2"/>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="42"/>
@@ -9517,7 +9562,7 @@
       <c r="J103" s="46"/>
       <c r="K103" s="47"/>
       <c r="L103" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M103" s="49"/>
       <c r="N103" s="49"/>
@@ -9540,9 +9585,9 @@
       <c r="AE103" s="49"/>
       <c r="AF103" s="49"/>
       <c r="AG103" s="50"/>
-      <c r="AH103" s="53"/>
-      <c r="AI103" s="54"/>
-      <c r="AJ103" s="3"/>
+      <c r="AH103" s="51"/>
+      <c r="AI103" s="52"/>
+      <c r="AJ103" s="2"/>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="42"/>
@@ -9557,7 +9602,7 @@
       <c r="J104" s="46"/>
       <c r="K104" s="47"/>
       <c r="L104" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M104" s="49"/>
       <c r="N104" s="49"/>
@@ -9580,9 +9625,9 @@
       <c r="AE104" s="49"/>
       <c r="AF104" s="49"/>
       <c r="AG104" s="50"/>
-      <c r="AH104" s="53"/>
-      <c r="AI104" s="54"/>
-      <c r="AJ104" s="3"/>
+      <c r="AH104" s="51"/>
+      <c r="AI104" s="52"/>
+      <c r="AJ104" s="2"/>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="42"/>
@@ -9624,13 +9669,13 @@
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="44"/>
       <c r="E106" s="45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F106" s="46"/>
       <c r="G106" s="46"/>
@@ -9639,7 +9684,7 @@
       <c r="J106" s="46"/>
       <c r="K106" s="47"/>
       <c r="L106" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M106" s="49"/>
       <c r="N106" s="49"/>
@@ -9679,7 +9724,7 @@
       <c r="J107" s="46"/>
       <c r="K107" s="47"/>
       <c r="L107" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M107" s="49"/>
       <c r="N107" s="49"/>
@@ -9702,9 +9747,9 @@
       <c r="AE107" s="49"/>
       <c r="AF107" s="49"/>
       <c r="AG107" s="50"/>
-      <c r="AH107" s="53"/>
-      <c r="AI107" s="54"/>
-      <c r="AJ107" s="3"/>
+      <c r="AH107" s="51"/>
+      <c r="AI107" s="52"/>
+      <c r="AJ107" s="2"/>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="42"/>
@@ -9719,7 +9764,7 @@
       <c r="J108" s="46"/>
       <c r="K108" s="47"/>
       <c r="L108" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M108" s="49"/>
       <c r="N108" s="49"/>
@@ -9742,9 +9787,9 @@
       <c r="AE108" s="49"/>
       <c r="AF108" s="49"/>
       <c r="AG108" s="50"/>
-      <c r="AH108" s="53"/>
-      <c r="AI108" s="54"/>
-      <c r="AJ108" s="3"/>
+      <c r="AH108" s="51"/>
+      <c r="AI108" s="52"/>
+      <c r="AJ108" s="2"/>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="42"/>
@@ -9759,7 +9804,7 @@
       <c r="J109" s="46"/>
       <c r="K109" s="47"/>
       <c r="L109" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M109" s="49"/>
       <c r="N109" s="49"/>
@@ -9782,9 +9827,9 @@
       <c r="AE109" s="49"/>
       <c r="AF109" s="49"/>
       <c r="AG109" s="50"/>
-      <c r="AH109" s="53"/>
-      <c r="AI109" s="54"/>
-      <c r="AJ109" s="3"/>
+      <c r="AH109" s="51"/>
+      <c r="AI109" s="52"/>
+      <c r="AJ109" s="2"/>
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="42"/>
@@ -9822,9 +9867,9 @@
       <c r="AE110" s="49"/>
       <c r="AF110" s="49"/>
       <c r="AG110" s="50"/>
-      <c r="AH110" s="53"/>
-      <c r="AI110" s="54"/>
-      <c r="AJ110" s="3"/>
+      <c r="AH110" s="51"/>
+      <c r="AI110" s="52"/>
+      <c r="AJ110" s="2"/>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="42"/>
@@ -9839,7 +9884,7 @@
       <c r="J111" s="46"/>
       <c r="K111" s="47"/>
       <c r="L111" s="48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M111" s="49"/>
       <c r="N111" s="49"/>
@@ -9862,9 +9907,9 @@
       <c r="AE111" s="49"/>
       <c r="AF111" s="49"/>
       <c r="AG111" s="50"/>
-      <c r="AH111" s="53"/>
-      <c r="AI111" s="54"/>
-      <c r="AJ111" s="3"/>
+      <c r="AH111" s="51"/>
+      <c r="AI111" s="52"/>
+      <c r="AJ111" s="2"/>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="42"/>
@@ -9906,13 +9951,13 @@
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="44"/>
       <c r="E113" s="45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F113" s="46"/>
       <c r="G113" s="46"/>
@@ -9921,7 +9966,7 @@
       <c r="J113" s="46"/>
       <c r="K113" s="47"/>
       <c r="L113" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M113" s="49"/>
       <c r="N113" s="49"/>
@@ -9961,7 +10006,7 @@
       <c r="J114" s="46"/>
       <c r="K114" s="47"/>
       <c r="L114" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M114" s="49"/>
       <c r="N114" s="49"/>
@@ -9984,8 +10029,8 @@
       <c r="AE114" s="49"/>
       <c r="AF114" s="49"/>
       <c r="AG114" s="50"/>
-      <c r="AH114" s="53"/>
-      <c r="AI114" s="54"/>
+      <c r="AH114" s="51"/>
+      <c r="AI114" s="52"/>
       <c r="AJ114" s="3"/>
     </row>
     <row r="115" spans="1:36">
@@ -10024,8 +10069,8 @@
       <c r="AE115" s="49"/>
       <c r="AF115" s="49"/>
       <c r="AG115" s="50"/>
-      <c r="AH115" s="53"/>
-      <c r="AI115" s="54"/>
+      <c r="AH115" s="51"/>
+      <c r="AI115" s="52"/>
       <c r="AJ115" s="3"/>
     </row>
     <row r="116" spans="1:36">
@@ -10064,8 +10109,8 @@
       <c r="AE116" s="49"/>
       <c r="AF116" s="49"/>
       <c r="AG116" s="50"/>
-      <c r="AH116" s="53"/>
-      <c r="AI116" s="54"/>
+      <c r="AH116" s="51"/>
+      <c r="AI116" s="52"/>
       <c r="AJ116" s="3"/>
     </row>
     <row r="117" spans="1:36" ht="18" customHeight="1">
@@ -10081,7 +10126,7 @@
       <c r="J117" s="46"/>
       <c r="K117" s="47"/>
       <c r="L117" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M117" s="49"/>
       <c r="N117" s="49"/>
@@ -10104,8 +10149,8 @@
       <c r="AE117" s="49"/>
       <c r="AF117" s="49"/>
       <c r="AG117" s="50"/>
-      <c r="AH117" s="53"/>
-      <c r="AI117" s="54"/>
+      <c r="AH117" s="51"/>
+      <c r="AI117" s="52"/>
       <c r="AJ117" s="3"/>
     </row>
     <row r="118" spans="1:36">
@@ -10121,7 +10166,7 @@
       <c r="J118" s="46"/>
       <c r="K118" s="47"/>
       <c r="L118" s="48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M118" s="49"/>
       <c r="N118" s="49"/>
@@ -10144,8 +10189,8 @@
       <c r="AE118" s="49"/>
       <c r="AF118" s="49"/>
       <c r="AG118" s="50"/>
-      <c r="AH118" s="53"/>
-      <c r="AI118" s="54"/>
+      <c r="AH118" s="51"/>
+      <c r="AI118" s="52"/>
       <c r="AJ118" s="3"/>
     </row>
     <row r="119" spans="1:36">
@@ -10404,7 +10449,6 @@
     <mergeCell ref="E20:K20"/>
     <mergeCell ref="L20:AG20"/>
     <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="E32:K32"/>
     <mergeCell ref="L32:AG32"/>
     <mergeCell ref="AH32:AI32"/>
@@ -10417,13 +10461,14 @@
     <mergeCell ref="L27:AG27"/>
     <mergeCell ref="AH27:AI27"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:K29"/>
     <mergeCell ref="L29:AG29"/>
     <mergeCell ref="AH29:AI29"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:K28"/>
     <mergeCell ref="L28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:K11"/>
     <mergeCell ref="L11:AG11"/>
@@ -10441,13 +10486,13 @@
     <mergeCell ref="L13:AG13"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:K30"/>
     <mergeCell ref="L30:AG30"/>
     <mergeCell ref="AH30:AI30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="E31:K31"/>
     <mergeCell ref="L31:AG31"/>
     <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="L9:AG9"/>
